--- a/주간 업무.xlsx
+++ b/주간 업무.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="48">
   <si>
     <t>요일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -200,6 +200,10 @@
   </si>
   <si>
     <t>막재 범어사 9시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -532,636 +536,717 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.796875" style="2"/>
+    <col min="2" max="2" width="5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="2">
+        <v>30</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>206</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>20759</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>44767</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B3">
-        <f>B2+1</f>
-        <v>207</v>
       </c>
       <c r="C3">
         <f>C2+1</f>
+        <v>207</v>
+      </c>
+      <c r="D3">
+        <f>D2+1</f>
         <v>20760</v>
       </c>
-      <c r="D3" s="1">
-        <f>D2+1</f>
+      <c r="E3" s="1">
+        <f>E2+1</f>
         <v>44768</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="2">
+        <v>30</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
-        <f t="shared" ref="B4:B32" si="0">B3+1</f>
+      <c r="C4">
+        <f t="shared" ref="C4:C32" si="0">C3+1</f>
         <v>208</v>
       </c>
-      <c r="C4">
-        <f t="shared" ref="C4:C32" si="1">C3+1</f>
+      <c r="D4">
+        <f t="shared" ref="D4:D32" si="1">D3+1</f>
         <v>20761</v>
       </c>
-      <c r="D4" s="1">
-        <f t="shared" ref="D4:D32" si="2">D3+1</f>
+      <c r="E4" s="1">
+        <f t="shared" ref="E4:E32" si="2">E3+1</f>
         <v>44769</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="2">
+        <v>30</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <f t="shared" si="0"/>
         <v>209</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <f t="shared" si="1"/>
         <v>20762</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <f t="shared" si="2"/>
         <v>44770</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="2">
+        <v>30</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <f t="shared" si="0"/>
         <v>210</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <f t="shared" si="1"/>
         <v>20763</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <f t="shared" si="2"/>
         <v>44771</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
+        <v>30</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <f t="shared" si="0"/>
         <v>211</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <f t="shared" si="1"/>
         <v>20764</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <f t="shared" si="2"/>
         <v>44772</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
+        <v>30</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <f t="shared" si="0"/>
         <v>212</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <f t="shared" si="1"/>
         <v>20765</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>44773</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="2" t="s">
+    <row r="9" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
+        <f>A8+1</f>
+        <v>31</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="B10">
-        <f>B8+1</f>
-        <v>213</v>
       </c>
       <c r="C10">
         <f>C8+1</f>
+        <v>213</v>
+      </c>
+      <c r="D10">
+        <f>D8+1</f>
         <v>20766</v>
       </c>
-      <c r="D10" s="1">
-        <f>D8+1</f>
+      <c r="E10" s="1">
+        <f>E8+1</f>
         <v>44774</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="2">
+        <f>A10</f>
+        <v>31</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <f t="shared" si="0"/>
         <v>214</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <f t="shared" si="1"/>
         <v>20767</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E11" s="1">
         <f t="shared" si="2"/>
         <v>44775</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
+        <f t="shared" ref="A12:A16" si="3">A11</f>
+        <v>31</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <f t="shared" si="0"/>
         <v>215</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <f t="shared" si="1"/>
         <v>20768</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="1">
         <f t="shared" si="2"/>
         <v>44776</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="2">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <f t="shared" si="0"/>
         <v>216</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <f t="shared" si="1"/>
         <v>20769</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E13" s="1">
         <f t="shared" si="2"/>
         <v>44777</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="2">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <f t="shared" si="0"/>
         <v>217</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <f t="shared" si="1"/>
         <v>20770</v>
       </c>
-      <c r="D14" s="1">
+      <c r="E14" s="1">
         <f t="shared" si="2"/>
         <v>44778</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="2">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <f t="shared" si="0"/>
         <v>218</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <f t="shared" si="1"/>
         <v>20771</v>
       </c>
-      <c r="D15" s="1">
+      <c r="E15" s="1">
         <f t="shared" si="2"/>
         <v>44779</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="2">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <f t="shared" si="0"/>
         <v>219</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <f t="shared" si="1"/>
         <v>20772</v>
       </c>
-      <c r="D16" s="1">
+      <c r="E16" s="1">
         <f t="shared" si="2"/>
         <v>44780</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="2" t="s">
+    <row r="17" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="2">
+        <f>A16+1</f>
+        <v>32</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="B18">
-        <f>B16+1</f>
-        <v>220</v>
       </c>
       <c r="C18">
         <f>C16+1</f>
+        <v>220</v>
+      </c>
+      <c r="D18">
+        <f>D16+1</f>
         <v>20773</v>
       </c>
-      <c r="D18" s="1">
-        <f>D16+1</f>
+      <c r="E18" s="1">
+        <f>E16+1</f>
         <v>44781</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="2">
+        <f>A18</f>
+        <v>32</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <f t="shared" si="0"/>
         <v>221</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <f t="shared" si="1"/>
         <v>20774</v>
       </c>
-      <c r="D19" s="1">
+      <c r="E19" s="1">
         <f t="shared" si="2"/>
         <v>44782</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="2">
+        <f t="shared" ref="A20:A24" si="4">A19</f>
+        <v>32</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <f t="shared" si="0"/>
         <v>222</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <f t="shared" si="1"/>
         <v>20775</v>
       </c>
-      <c r="D20" s="1">
+      <c r="E20" s="1">
         <f t="shared" si="2"/>
         <v>44783</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="2">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <f t="shared" si="0"/>
         <v>223</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <f t="shared" si="1"/>
         <v>20776</v>
       </c>
-      <c r="D21" s="1">
+      <c r="E21" s="1">
         <f t="shared" si="2"/>
         <v>44784</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="2">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <f t="shared" si="0"/>
         <v>224</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <f t="shared" si="1"/>
         <v>20777</v>
       </c>
-      <c r="D22" s="1">
+      <c r="E22" s="1">
         <f t="shared" si="2"/>
         <v>44785</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="2">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <f t="shared" si="0"/>
         <v>225</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <f t="shared" si="1"/>
         <v>20778</v>
       </c>
-      <c r="D23" s="1">
+      <c r="E23" s="1">
         <f t="shared" si="2"/>
         <v>44786</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="2">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <f t="shared" si="0"/>
         <v>226</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <f t="shared" si="1"/>
         <v>20779</v>
       </c>
-      <c r="D24" s="1">
+      <c r="E24" s="1">
         <f t="shared" si="2"/>
         <v>44787</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="2" t="s">
+    <row r="25" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="B26">
-        <f>B24+1</f>
-        <v>227</v>
       </c>
       <c r="C26">
         <f>C24+1</f>
+        <v>227</v>
+      </c>
+      <c r="D26">
+        <f>D24+1</f>
         <v>20780</v>
       </c>
-      <c r="D26" s="1">
-        <f>D24+1</f>
+      <c r="E26" s="1">
+        <f>E24+1</f>
         <v>44788</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <f t="shared" si="0"/>
         <v>228</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <f t="shared" si="1"/>
         <v>20781</v>
       </c>
-      <c r="D27" s="1">
+      <c r="E27" s="1">
         <f t="shared" si="2"/>
         <v>44789</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <f t="shared" si="0"/>
         <v>229</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <f t="shared" si="1"/>
         <v>20782</v>
       </c>
-      <c r="D28" s="1">
+      <c r="E28" s="1">
         <f t="shared" si="2"/>
         <v>44790</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <f t="shared" si="0"/>
         <v>230</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <f t="shared" si="1"/>
         <v>20783</v>
       </c>
-      <c r="D29" s="1">
+      <c r="E29" s="1">
         <f t="shared" si="2"/>
         <v>44791</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <f t="shared" si="0"/>
         <v>231</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <f t="shared" si="1"/>
         <v>20784</v>
       </c>
-      <c r="D30" s="1">
+      <c r="E30" s="1">
         <f t="shared" si="2"/>
         <v>44792</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <f t="shared" si="0"/>
         <v>232</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <f t="shared" si="1"/>
         <v>20785</v>
       </c>
-      <c r="D31" s="1">
+      <c r="E31" s="1">
         <f t="shared" si="2"/>
         <v>44793</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <f t="shared" si="0"/>
         <v>233</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <f t="shared" si="1"/>
         <v>20786</v>
       </c>
-      <c r="D32" s="1">
+      <c r="E32" s="1">
         <f t="shared" si="2"/>
         <v>44794</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="2" t="s">
+    <row r="33" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="B34">
-        <f>B32+1</f>
-        <v>234</v>
       </c>
       <c r="C34">
         <f>C32+1</f>
+        <v>234</v>
+      </c>
+      <c r="D34">
+        <f>D32+1</f>
         <v>20787</v>
       </c>
-      <c r="D34" s="1">
-        <f>D32+1</f>
+      <c r="E34" s="1">
+        <f>E32+1</f>
         <v>44795</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="2" t="s">
+    <row r="35" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B35">
-        <f t="shared" ref="B35:B40" si="3">B34+1</f>
+      <c r="C35">
+        <f t="shared" ref="C35:C40" si="5">C34+1</f>
         <v>235</v>
       </c>
-      <c r="C35">
-        <f t="shared" ref="C35:C40" si="4">C34+1</f>
+      <c r="D35">
+        <f t="shared" ref="D35:D40" si="6">D34+1</f>
         <v>20788</v>
       </c>
-      <c r="D35" s="1">
-        <f t="shared" ref="D35:D40" si="5">D34+1</f>
+      <c r="E35" s="1">
+        <f t="shared" ref="E35:E40" si="7">E34+1</f>
         <v>44796</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="2" t="s">
+    <row r="36" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B36">
-        <f t="shared" si="3"/>
+      <c r="C36">
+        <f t="shared" si="5"/>
         <v>236</v>
       </c>
-      <c r="C36">
-        <f t="shared" si="4"/>
+      <c r="D36">
+        <f t="shared" si="6"/>
         <v>20789</v>
       </c>
-      <c r="D36" s="1">
+      <c r="E36" s="1">
+        <f t="shared" si="7"/>
+        <v>44797</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37">
         <f t="shared" si="5"/>
-        <v>44797</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37">
-        <f t="shared" si="3"/>
         <v>237</v>
       </c>
-      <c r="C37">
-        <f t="shared" si="4"/>
+      <c r="D37">
+        <f t="shared" si="6"/>
         <v>20790</v>
       </c>
-      <c r="D37" s="1">
+      <c r="E37" s="1">
+        <f t="shared" si="7"/>
+        <v>44798</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38">
         <f t="shared" si="5"/>
-        <v>44798</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B38">
-        <f t="shared" si="3"/>
         <v>238</v>
       </c>
-      <c r="C38">
-        <f t="shared" si="4"/>
+      <c r="D38">
+        <f t="shared" si="6"/>
         <v>20791</v>
       </c>
-      <c r="D38" s="1">
+      <c r="E38" s="1">
+        <f t="shared" si="7"/>
+        <v>44799</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39">
         <f t="shared" si="5"/>
-        <v>44799</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39">
-        <f t="shared" si="3"/>
         <v>239</v>
       </c>
-      <c r="C39">
-        <f t="shared" si="4"/>
+      <c r="D39">
+        <f t="shared" si="6"/>
         <v>20792</v>
       </c>
-      <c r="D39" s="1">
+      <c r="E39" s="1">
+        <f t="shared" si="7"/>
+        <v>44800</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40">
         <f t="shared" si="5"/>
-        <v>44800</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B40">
-        <f t="shared" si="3"/>
         <v>240</v>
       </c>
-      <c r="C40">
-        <f t="shared" si="4"/>
+      <c r="D40">
+        <f t="shared" si="6"/>
         <v>20793</v>
       </c>
-      <c r="D40" s="1">
-        <f t="shared" si="5"/>
+      <c r="E40" s="1">
+        <f t="shared" si="7"/>
         <v>44801</v>
       </c>
     </row>

--- a/주간 업무.xlsx
+++ b/주간 업무.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="주간" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="51">
   <si>
     <t>요일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -204,6 +204,18 @@
   </si>
   <si>
     <t>주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김재홍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외박</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외박 및 휴가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -538,7 +550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
@@ -1259,13 +1271,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1496,8 +1508,27 @@
         <v>46</v>
       </c>
     </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A19" s="1">
+        <v>44781</v>
+      </c>
+      <c r="B19" s="2" t="str">
+        <f>TEXT(A19,"aaa")</f>
+        <v>월</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/주간 업무.xlsx
+++ b/주간 업무.xlsx
@@ -1271,13 +1271,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
+      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1361,168 +1361,168 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="1">
-        <v>44786</v>
-      </c>
-      <c r="B6" s="2" t="str">
-        <f>TEXT(A6,"aaa")</f>
-        <v>토</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>35</v>
-      </c>
-    </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
-        <v>44803</v>
+        <v>44786</v>
       </c>
       <c r="B7" s="2" t="str">
         <f>TEXT(A7,"aaa")</f>
-        <v>화</v>
+        <v>토</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
         <v>35</v>
       </c>
-      <c r="G7" t="s">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <v>44803</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <f>TEXT(A8,"aaa")</f>
+        <v>화</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="1">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
         <v>44793</v>
       </c>
-      <c r="B9" s="2" t="str">
-        <f>TEXT(A9,"aaa")</f>
+      <c r="B10" s="2" t="str">
+        <f>TEXT(A10,"aaa")</f>
         <v>토</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>26</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>33</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E10" t="s">
         <v>27</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G10" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="1">
-        <v>44764</v>
-      </c>
-      <c r="B11" s="2" t="str">
-        <f>TEXT(A11,"aaa")</f>
-        <v>금</v>
-      </c>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
-        <v>44828</v>
+        <v>44764</v>
       </c>
       <c r="B12" s="2" t="str">
         <f>TEXT(A12,"aaa")</f>
-        <v>토</v>
+        <v>금</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G12" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
-        <v>44862</v>
+        <v>44828</v>
       </c>
       <c r="B13" s="2" t="str">
         <f>TEXT(A13,"aaa")</f>
+        <v>토</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" s="1">
+        <v>44862</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <f>TEXT(A14,"aaa")</f>
         <v>금</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>29</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>39</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15" s="1">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" s="1">
         <v>44766</v>
       </c>
-      <c r="B15" s="2" t="str">
-        <f>TEXT(A15,"aaa")</f>
+      <c r="B16" s="2" t="str">
+        <f>TEXT(A16,"aaa")</f>
         <v>일</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>41</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>42</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A17" s="1">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A18" s="1">
         <v>44786</v>
       </c>
-      <c r="B17" s="2" t="str">
-        <f>TEXT(A17,"aaa")</f>
+      <c r="B18" s="2" t="str">
+        <f>TEXT(A18,"aaa")</f>
         <v>토</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>44</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>45</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G18" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A19" s="1">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A20" s="1">
         <v>44781</v>
       </c>
-      <c r="B19" s="2" t="str">
-        <f>TEXT(A19,"aaa")</f>
+      <c r="B20" s="2" t="str">
+        <f>TEXT(A20,"aaa")</f>
         <v>월</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>48</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" t="s">
         <v>49</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G20" t="s">
         <v>50</v>
       </c>
     </row>

--- a/주간 업무.xlsx
+++ b/주간 업무.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="52">
   <si>
     <t>요일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -216,6 +216,10 @@
   </si>
   <si>
     <t>외박 및 휴가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금성고</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1271,13 +1275,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1395,134 +1399,139 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="1">
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
         <v>44793</v>
       </c>
-      <c r="B10" s="2" t="str">
-        <f>TEXT(A10,"aaa")</f>
+      <c r="B11" s="2" t="str">
+        <f>TEXT(A11,"aaa")</f>
         <v>토</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>26</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
         <v>33</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E11" t="s">
         <v>27</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G11" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="1">
-        <v>44764</v>
-      </c>
-      <c r="B12" s="2" t="str">
-        <f>TEXT(A12,"aaa")</f>
-        <v>금</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
-        <v>44828</v>
+        <v>44764</v>
       </c>
       <c r="B13" s="2" t="str">
         <f>TEXT(A13,"aaa")</f>
-        <v>토</v>
+        <v>금</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G13" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
-        <v>44862</v>
+        <v>44828</v>
       </c>
       <c r="B14" s="2" t="str">
         <f>TEXT(A14,"aaa")</f>
+        <v>토</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" s="1">
+        <v>44862</v>
+      </c>
+      <c r="B15" s="2" t="str">
+        <f>TEXT(A15,"aaa")</f>
         <v>금</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>29</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>39</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16" s="1">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A17" s="1">
         <v>44766</v>
       </c>
-      <c r="B16" s="2" t="str">
-        <f>TEXT(A16,"aaa")</f>
+      <c r="B17" s="2" t="str">
+        <f>TEXT(A17,"aaa")</f>
         <v>일</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>41</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>42</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A18" s="1">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A19" s="1">
         <v>44786</v>
       </c>
-      <c r="B18" s="2" t="str">
-        <f>TEXT(A18,"aaa")</f>
+      <c r="B19" s="2" t="str">
+        <f>TEXT(A19,"aaa")</f>
         <v>토</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>44</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
         <v>45</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G19" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A20" s="1">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A21" s="1">
         <v>44781</v>
       </c>
-      <c r="B20" s="2" t="str">
-        <f>TEXT(A20,"aaa")</f>
+      <c r="B21" s="2" t="str">
+        <f>TEXT(A21,"aaa")</f>
         <v>월</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>48</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>49</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G21" t="s">
         <v>50</v>
       </c>
     </row>

--- a/주간 업무.xlsx
+++ b/주간 업무.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="61">
   <si>
     <t>요일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -187,10 +187,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>회동 수원지 둘레길</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>안복길</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -220,6 +216,46 @@
   </si>
   <si>
     <t>금성고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명장 도서관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7/30 ~ 8/13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중앙 도서관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7/30 ~ 11/10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7/29 ~ 8/12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안복길 막재 때문에 8/13에서 8/30로 날짜 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>병원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도서관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청파팀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>템플 스테이로 변경</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -570,7 +606,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1275,13 +1311,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1312,232 +1351,286 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="1">
-        <v>44779</v>
-      </c>
-      <c r="B2" s="2" t="str">
-        <f>TEXT(A2,"aaa")</f>
-        <v>토</v>
-      </c>
       <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
-        <v>44779</v>
+        <v>44875</v>
       </c>
       <c r="B3" s="2" t="str">
         <f>TEXT(A3,"aaa")</f>
-        <v>토</v>
+        <v>목</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
         <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
-        <v>44778</v>
+        <v>44779</v>
       </c>
       <c r="B4" s="2" t="str">
         <f>TEXT(A4,"aaa")</f>
-        <v>금</v>
+        <v>토</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
         <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>44785</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f>TEXT(A5,"aaa")</f>
+        <v>금</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <v>44786</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f>TEXT(A6,"aaa")</f>
+        <v>토</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
-        <v>44786</v>
+        <v>44778</v>
       </c>
       <c r="B7" s="2" t="str">
         <f>TEXT(A7,"aaa")</f>
-        <v>토</v>
+        <v>금</v>
       </c>
       <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
+        <v>44803</v>
+      </c>
+      <c r="B10" s="2" t="str">
+        <f>TEXT(A10,"aaa")</f>
+        <v>화</v>
+      </c>
+      <c r="C10" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D10" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="1">
-        <v>44803</v>
-      </c>
-      <c r="B8" s="2" t="str">
-        <f>TEXT(A8,"aaa")</f>
-        <v>화</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="C10" t="s">
-        <v>51</v>
+      <c r="G10" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
-        <v>44793</v>
+        <v>44803</v>
       </c>
       <c r="B11" s="2" t="str">
         <f>TEXT(A11,"aaa")</f>
-        <v>토</v>
+        <v>화</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="G11" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" s="1">
-        <v>44764</v>
-      </c>
-      <c r="B13" s="2" t="str">
-        <f>TEXT(A13,"aaa")</f>
-        <v>금</v>
-      </c>
       <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
-        <v>44828</v>
+        <v>44793</v>
       </c>
       <c r="B14" s="2" t="str">
         <f>TEXT(A14,"aaa")</f>
         <v>토</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="G14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15" s="1">
-        <v>44862</v>
-      </c>
-      <c r="B15" s="2" t="str">
-        <f>TEXT(A15,"aaa")</f>
-        <v>금</v>
-      </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" t="s">
-        <v>40</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C16" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
-        <v>44766</v>
+        <v>44764</v>
       </c>
       <c r="B17" s="2" t="str">
         <f>TEXT(A17,"aaa")</f>
-        <v>일</v>
+        <v>금</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G17" t="s">
-        <v>43</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A18" s="1">
+        <v>44828</v>
+      </c>
+      <c r="B18" s="2" t="str">
+        <f>TEXT(A18,"aaa")</f>
+        <v>토</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
-        <v>44786</v>
+        <v>44862</v>
       </c>
       <c r="B19" s="2" t="str">
         <f>TEXT(A19,"aaa")</f>
-        <v>토</v>
+        <v>금</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
-        <v>44781</v>
+        <v>44793</v>
       </c>
       <c r="B21" s="2" t="str">
         <f>TEXT(A21,"aaa")</f>
+        <v>토</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A23" s="1">
+        <v>44786</v>
+      </c>
+      <c r="B23" s="2" t="str">
+        <f>TEXT(A23,"aaa")</f>
+        <v>토</v>
+      </c>
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" t="s">
+        <v>44</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A25" s="1">
+        <v>44781</v>
+      </c>
+      <c r="B25" s="2" t="str">
+        <f>TEXT(A25,"aaa")</f>
         <v>월</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" t="s">
         <v>48</v>
       </c>
-      <c r="D21" t="s">
+      <c r="G25" t="s">
         <v>49</v>
-      </c>
-      <c r="G21" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="98" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/주간 업무.xlsx
+++ b/주간 업무.xlsx
@@ -4,12 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="주간" sheetId="1" r:id="rId1"/>
     <sheet name="업무" sheetId="2" r:id="rId2"/>
+    <sheet name="포스트" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">포스트!$A$1:$H$27</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -20,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="84">
   <si>
     <t>요일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -256,6 +260,98 @@
   </si>
   <si>
     <t>템플 스테이로 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주간 업무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도서 검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도서 대출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도서관 행사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피그마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>픽슬러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음악 악보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음악 공부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반야선원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>암기장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단축키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김대희 식당</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천수경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사성제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금정불교대학 19년 야간 능인회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박물관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>병원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -290,7 +386,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -298,15 +394,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1316,7 +1429,7 @@
   </sheetPr>
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1633,4 +1746,317 @@
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="98" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="8.796875" style="4"/>
+    <col min="8" max="8" width="1.69921875" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="8.796875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="1.1811023622047245" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;28포스트</oddHeader>
+    <oddFooter>&amp;L&amp;Z
+&amp;F
+&amp;A&amp;R&amp;D&amp;T</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/주간 업무.xlsx
+++ b/주간 업무.xlsx
@@ -12,7 +12,7 @@
     <sheet name="포스트" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">포스트!$A$1:$H$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">포스트!$A$1:$H$28</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="85">
   <si>
     <t>요일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -352,6 +352,11 @@
   </si>
   <si>
     <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종 
+편집일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -359,8 +364,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+    <numFmt numFmtId="178" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -386,7 +392,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -405,11 +411,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -419,6 +458,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1750,25 +1804,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="8.796875" style="4"/>
+    <col min="3" max="3" width="8.796875" style="4"/>
+    <col min="4" max="4" width="9.69921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.796875" style="4"/>
     <col min="8" max="8" width="1.69921875" style="4" customWidth="1"/>
     <col min="9" max="16384" width="8.796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>81</v>
       </c>
@@ -1778,275 +1835,291 @@
       <c r="C1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="8"/>
+      <c r="F1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="9">
+        <v>44783</v>
+      </c>
+      <c r="E13" s="9" t="str">
+        <f>TEXT(D13,"aaa")</f>
+        <v>수</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3" t="s">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3" t="s">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3" t="s">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3" t="s">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3" t="s">
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3" t="s">
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
     </row>
     <row r="23" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
     </row>
     <row r="24" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3" t="s">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3" t="s">
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3" t="s">
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/주간 업무.xlsx
+++ b/주간 업무.xlsx
@@ -12,7 +12,7 @@
     <sheet name="포스트" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">포스트!$A$1:$H$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">포스트!$A$1:$H$33</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>요일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -263,22 +263,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>주간 업무</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도서 검색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도서 대출</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도서관 행사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>피그마</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -287,30 +271,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>음악 악보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>음악 공부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반야선원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>암기장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>단축키</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>김대희 식당</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>장구</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -332,10 +296,6 @@
   </si>
   <si>
     <t>신화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>병원</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -357,6 +317,74 @@
   <si>
     <t>최종 
 편집일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김대희</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  김대희</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  맛집 식당</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  주간 업무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  해운대 반야선원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  금정 동문회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  울산 지사 업무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  암기장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  풍경 사진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  마인드맵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  도서 검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  도서 대출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  도서관 행사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  음악 공부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  음악 악보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>병원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쇼핑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -366,7 +394,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
-    <numFmt numFmtId="178" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;;@"/>
+    <numFmt numFmtId="177" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -392,7 +420,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -407,17 +435,6 @@
         <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -444,11 +461,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -466,13 +501,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1804,13 +1842,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
+      <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1827,299 +1865,358 @@
   <sheetData>
     <row r="1" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="7"/>
+      <c r="F1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="8">
+        <v>44783</v>
+      </c>
+      <c r="E6" s="8" t="str">
+        <f>TEXT(D6,"aaa")</f>
+        <v>수</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="C8" s="5"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5" t="s">
+      <c r="C11" s="5"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6" t="s">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6" t="s">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6" t="s">
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6" t="s">
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6" t="s">
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6" t="s">
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6" t="s">
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="9">
-        <v>44783</v>
-      </c>
-      <c r="E13" s="9" t="str">
-        <f>TEXT(D13,"aaa")</f>
-        <v>수</v>
-      </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-    </row>
-    <row r="20" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-    </row>
-    <row r="22" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-    </row>
-    <row r="23" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-    </row>
-    <row r="24" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-    </row>
-    <row r="25" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-    </row>
-    <row r="26" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/주간 업무.xlsx
+++ b/주간 업무.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="주간" sheetId="1" r:id="rId1"/>
@@ -795,9 +795,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A27" sqref="A27:A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1267,6 +1267,9 @@
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="2">
+        <v>33</v>
+      </c>
       <c r="B26" s="2" t="s">
         <v>1</v>
       </c>
@@ -1284,6 +1287,9 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="2">
+        <v>33</v>
+      </c>
       <c r="B27" s="2" t="s">
         <v>3</v>
       </c>
@@ -1301,6 +1307,9 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="2">
+        <v>33</v>
+      </c>
       <c r="B28" s="2" t="s">
         <v>5</v>
       </c>
@@ -1318,6 +1327,9 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="2">
+        <v>33</v>
+      </c>
       <c r="B29" s="2" t="s">
         <v>6</v>
       </c>
@@ -1335,6 +1347,9 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="2">
+        <v>33</v>
+      </c>
       <c r="B30" s="2" t="s">
         <v>7</v>
       </c>
@@ -1352,6 +1367,9 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="2">
+        <v>33</v>
+      </c>
       <c r="B31" s="2" t="s">
         <v>8</v>
       </c>
@@ -1369,6 +1387,9 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="2">
+        <v>33</v>
+      </c>
       <c r="B32" s="2" t="s">
         <v>9</v>
       </c>
@@ -1844,7 +1865,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/주간 업무.xlsx
+++ b/주간 업무.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>요일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -793,11 +793,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A27" sqref="A27:A32"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1406,10 +1406,13 @@
         <v>44794</v>
       </c>
     </row>
-    <row r="33" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="2">
+        <v>34</v>
+      </c>
       <c r="B34" s="2" t="s">
         <v>1</v>
       </c>
@@ -1426,7 +1429,10 @@
         <v>44795</v>
       </c>
     </row>
-    <row r="35" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
       <c r="B35" s="2" t="s">
         <v>3</v>
       </c>
@@ -1443,7 +1449,10 @@
         <v>44796</v>
       </c>
     </row>
-    <row r="36" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="2">
+        <v>34</v>
+      </c>
       <c r="B36" s="2" t="s">
         <v>5</v>
       </c>
@@ -1460,7 +1469,10 @@
         <v>44797</v>
       </c>
     </row>
-    <row r="37" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="2">
+        <v>34</v>
+      </c>
       <c r="B37" s="2" t="s">
         <v>6</v>
       </c>
@@ -1477,7 +1489,10 @@
         <v>44798</v>
       </c>
     </row>
-    <row r="38" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="2">
+        <v>34</v>
+      </c>
       <c r="B38" s="2" t="s">
         <v>7</v>
       </c>
@@ -1494,7 +1509,10 @@
         <v>44799</v>
       </c>
     </row>
-    <row r="39" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="2">
+        <v>34</v>
+      </c>
       <c r="B39" s="2" t="s">
         <v>8</v>
       </c>
@@ -1511,7 +1529,10 @@
         <v>44800</v>
       </c>
     </row>
-    <row r="40" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="2">
+        <v>34</v>
+      </c>
       <c r="B40" s="2" t="s">
         <v>9</v>
       </c>
@@ -1526,6 +1547,152 @@
       <c r="E40" s="1">
         <f t="shared" si="7"/>
         <v>44801</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="2">
+        <v>35</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <f>C40+1</f>
+        <v>241</v>
+      </c>
+      <c r="D42">
+        <f>D40+1</f>
+        <v>20794</v>
+      </c>
+      <c r="E42" s="1">
+        <f>E40+1</f>
+        <v>44802</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="2">
+        <f>A42</f>
+        <v>35</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ref="C43:E48" si="8">C42+1</f>
+        <v>242</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="8"/>
+        <v>20795</v>
+      </c>
+      <c r="E43" s="1">
+        <f t="shared" si="8"/>
+        <v>44803</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="2">
+        <f>A43</f>
+        <v>35</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="8"/>
+        <v>243</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="8"/>
+        <v>20796</v>
+      </c>
+      <c r="E44" s="1">
+        <f t="shared" si="8"/>
+        <v>44804</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="2">
+        <f t="shared" ref="A45:A48" si="9">A44</f>
+        <v>35</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="8"/>
+        <v>244</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="8"/>
+        <v>20797</v>
+      </c>
+      <c r="E45" s="1">
+        <f t="shared" si="8"/>
+        <v>44805</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="2">
+        <f t="shared" si="9"/>
+        <v>35</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="8"/>
+        <v>245</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="8"/>
+        <v>20798</v>
+      </c>
+      <c r="E46" s="1">
+        <f t="shared" si="8"/>
+        <v>44806</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="2">
+        <f t="shared" si="9"/>
+        <v>35</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="8"/>
+        <v>246</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="8"/>
+        <v>20799</v>
+      </c>
+      <c r="E47" s="1">
+        <f t="shared" si="8"/>
+        <v>44807</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="2">
+        <f t="shared" si="9"/>
+        <v>35</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="8"/>
+        <v>247</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="8"/>
+        <v>20800</v>
+      </c>
+      <c r="E48" s="1">
+        <f t="shared" si="8"/>
+        <v>44808</v>
       </c>
     </row>
   </sheetData>

--- a/주간 업무.xlsx
+++ b/주간 업무.xlsx
@@ -392,9 +392,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;;@"/>
+    <numFmt numFmtId="179" formatCode="000\ 00"/>
+    <numFmt numFmtId="180" formatCode="0\ 00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -483,7 +485,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -513,6 +515,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -796,16 +800,16 @@
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.796875" style="2"/>
     <col min="2" max="2" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.59765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -824,10 +828,10 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="12">
         <v>206</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="11">
         <v>20759</v>
       </c>
       <c r="E2" s="1">
@@ -841,11 +845,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="12">
         <f>C2+1</f>
         <v>207</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="11">
         <f>D2+1</f>
         <v>20760</v>
       </c>
@@ -864,11 +868,11 @@
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="12">
         <f t="shared" ref="C4:C32" si="0">C3+1</f>
         <v>208</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="11">
         <f t="shared" ref="D4:D32" si="1">D3+1</f>
         <v>20761</v>
       </c>
@@ -884,11 +888,11 @@
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="12">
         <f t="shared" si="0"/>
         <v>209</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="11">
         <f t="shared" si="1"/>
         <v>20762</v>
       </c>
@@ -904,11 +908,11 @@
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="12">
         <f t="shared" si="0"/>
         <v>210</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="11">
         <f t="shared" si="1"/>
         <v>20763</v>
       </c>
@@ -927,11 +931,11 @@
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="12">
         <f t="shared" si="0"/>
         <v>211</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="11">
         <f t="shared" si="1"/>
         <v>20764</v>
       </c>
@@ -947,11 +951,11 @@
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="12">
         <f t="shared" si="0"/>
         <v>212</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="11">
         <f t="shared" si="1"/>
         <v>20765</v>
       </c>
@@ -961,6 +965,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C9" s="12"/>
+      <c r="D9" s="11"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -971,11 +977,11 @@
       <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="12">
         <f>C8+1</f>
         <v>213</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="11">
         <f>D8+1</f>
         <v>20766</v>
       </c>
@@ -992,11 +998,11 @@
       <c r="B11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="12">
         <f t="shared" si="0"/>
         <v>214</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="11">
         <f t="shared" si="1"/>
         <v>20767</v>
       </c>
@@ -1013,11 +1019,11 @@
       <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="12">
         <f t="shared" si="0"/>
         <v>215</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="11">
         <f t="shared" si="1"/>
         <v>20768</v>
       </c>
@@ -1034,11 +1040,11 @@
       <c r="B13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="12">
         <f t="shared" si="0"/>
         <v>216</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="11">
         <f t="shared" si="1"/>
         <v>20769</v>
       </c>
@@ -1055,11 +1061,11 @@
       <c r="B14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="12">
         <f t="shared" si="0"/>
         <v>217</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="11">
         <f t="shared" si="1"/>
         <v>20770</v>
       </c>
@@ -1079,11 +1085,11 @@
       <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="12">
         <f t="shared" si="0"/>
         <v>218</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="11">
         <f t="shared" si="1"/>
         <v>20771</v>
       </c>
@@ -1100,11 +1106,11 @@
       <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="12">
         <f t="shared" si="0"/>
         <v>219</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="11">
         <f t="shared" si="1"/>
         <v>20772</v>
       </c>
@@ -1114,6 +1120,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C17" s="12"/>
+      <c r="D17" s="11"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -1124,11 +1132,11 @@
       <c r="B18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="12">
         <f>C16+1</f>
         <v>220</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="11">
         <f>D16+1</f>
         <v>20773</v>
       </c>
@@ -1145,11 +1153,11 @@
       <c r="B19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="12">
         <f t="shared" si="0"/>
         <v>221</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="11">
         <f t="shared" si="1"/>
         <v>20774</v>
       </c>
@@ -1166,11 +1174,11 @@
       <c r="B20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="12">
         <f t="shared" si="0"/>
         <v>222</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="11">
         <f t="shared" si="1"/>
         <v>20775</v>
       </c>
@@ -1187,11 +1195,11 @@
       <c r="B21" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="12">
         <f t="shared" si="0"/>
         <v>223</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="11">
         <f t="shared" si="1"/>
         <v>20776</v>
       </c>
@@ -1208,11 +1216,11 @@
       <c r="B22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="12">
         <f t="shared" si="0"/>
         <v>224</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="11">
         <f t="shared" si="1"/>
         <v>20777</v>
       </c>
@@ -1229,11 +1237,11 @@
       <c r="B23" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="12">
         <f t="shared" si="0"/>
         <v>225</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="11">
         <f t="shared" si="1"/>
         <v>20778</v>
       </c>
@@ -1250,11 +1258,11 @@
       <c r="B24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="12">
         <f t="shared" si="0"/>
         <v>226</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="11">
         <f t="shared" si="1"/>
         <v>20779</v>
       </c>
@@ -1264,6 +1272,8 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C25" s="12"/>
+      <c r="D25" s="11"/>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -1273,11 +1283,11 @@
       <c r="B26" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="12">
         <f>C24+1</f>
         <v>227</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="11">
         <f>D24+1</f>
         <v>20780</v>
       </c>
@@ -1293,11 +1303,11 @@
       <c r="B27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="12">
         <f t="shared" si="0"/>
         <v>228</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="11">
         <f t="shared" si="1"/>
         <v>20781</v>
       </c>
@@ -1313,11 +1323,11 @@
       <c r="B28" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="12">
         <f t="shared" si="0"/>
         <v>229</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="11">
         <f t="shared" si="1"/>
         <v>20782</v>
       </c>
@@ -1333,11 +1343,11 @@
       <c r="B29" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="12">
         <f t="shared" si="0"/>
         <v>230</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="11">
         <f t="shared" si="1"/>
         <v>20783</v>
       </c>
@@ -1353,11 +1363,11 @@
       <c r="B30" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="12">
         <f t="shared" si="0"/>
         <v>231</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="11">
         <f t="shared" si="1"/>
         <v>20784</v>
       </c>
@@ -1373,11 +1383,11 @@
       <c r="B31" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="12">
         <f t="shared" si="0"/>
         <v>232</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="11">
         <f t="shared" si="1"/>
         <v>20785</v>
       </c>
@@ -1393,11 +1403,11 @@
       <c r="B32" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="12">
         <f t="shared" si="0"/>
         <v>233</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="11">
         <f t="shared" si="1"/>
         <v>20786</v>
       </c>
@@ -1407,6 +1417,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C33" s="12"/>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -1416,11 +1427,11 @@
       <c r="B34" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="12">
         <f>C32+1</f>
         <v>234</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="11">
         <f>D32+1</f>
         <v>20787</v>
       </c>
@@ -1436,11 +1447,11 @@
       <c r="B35" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="12">
         <f t="shared" ref="C35:C40" si="5">C34+1</f>
         <v>235</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="11">
         <f t="shared" ref="D35:D40" si="6">D34+1</f>
         <v>20788</v>
       </c>
@@ -1456,11 +1467,11 @@
       <c r="B36" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="12">
         <f t="shared" si="5"/>
         <v>236</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="11">
         <f t="shared" si="6"/>
         <v>20789</v>
       </c>
@@ -1476,11 +1487,11 @@
       <c r="B37" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="12">
         <f t="shared" si="5"/>
         <v>237</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="11">
         <f t="shared" si="6"/>
         <v>20790</v>
       </c>
@@ -1496,11 +1507,11 @@
       <c r="B38" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="12">
         <f t="shared" si="5"/>
         <v>238</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="11">
         <f t="shared" si="6"/>
         <v>20791</v>
       </c>
@@ -1516,11 +1527,11 @@
       <c r="B39" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="12">
         <f t="shared" si="5"/>
         <v>239</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="11">
         <f t="shared" si="6"/>
         <v>20792</v>
       </c>
@@ -1536,11 +1547,11 @@
       <c r="B40" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="12">
         <f t="shared" si="5"/>
         <v>240</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="11">
         <f t="shared" si="6"/>
         <v>20793</v>
       </c>
@@ -1549,6 +1560,9 @@
         <v>44801</v>
       </c>
     </row>
+    <row r="41" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C41" s="12"/>
+    </row>
     <row r="42" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="2">
         <v>35</v>
@@ -1556,11 +1570,11 @@
       <c r="B42" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="12">
         <f>C40+1</f>
         <v>241</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="11">
         <f>D40+1</f>
         <v>20794</v>
       </c>
@@ -1577,11 +1591,11 @@
       <c r="B43" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="12">
         <f t="shared" ref="C43:E48" si="8">C42+1</f>
         <v>242</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="11">
         <f t="shared" si="8"/>
         <v>20795</v>
       </c>
@@ -1598,11 +1612,11 @@
       <c r="B44" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="12">
         <f t="shared" si="8"/>
         <v>243</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="11">
         <f t="shared" si="8"/>
         <v>20796</v>
       </c>
@@ -1619,11 +1633,11 @@
       <c r="B45" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="12">
         <f t="shared" si="8"/>
         <v>244</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="11">
         <f t="shared" si="8"/>
         <v>20797</v>
       </c>
@@ -1640,11 +1654,11 @@
       <c r="B46" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="12">
         <f t="shared" si="8"/>
         <v>245</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="11">
         <f t="shared" si="8"/>
         <v>20798</v>
       </c>
@@ -1661,11 +1675,11 @@
       <c r="B47" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="12">
         <f t="shared" si="8"/>
         <v>246</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="11">
         <f t="shared" si="8"/>
         <v>20799</v>
       </c>
@@ -1682,11 +1696,11 @@
       <c r="B48" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="12">
         <f t="shared" si="8"/>
         <v>247</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="11">
         <f t="shared" si="8"/>
         <v>20800</v>
       </c>

--- a/주간 업무.xlsx
+++ b/주간 업무.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>요일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -395,8 +395,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;;@"/>
-    <numFmt numFmtId="179" formatCode="000\ 00"/>
-    <numFmt numFmtId="180" formatCode="0\ 00"/>
+    <numFmt numFmtId="178" formatCode="000\ 00"/>
+    <numFmt numFmtId="179" formatCode="0\ 00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -515,8 +515,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -797,11 +797,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1707,6 +1707,152 @@
       <c r="E48" s="1">
         <f t="shared" si="8"/>
         <v>44808</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="2">
+        <v>35</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="12">
+        <f>C48+1</f>
+        <v>248</v>
+      </c>
+      <c r="D50" s="11">
+        <f>D48+1</f>
+        <v>20801</v>
+      </c>
+      <c r="E50" s="1">
+        <f>E48+1</f>
+        <v>44809</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="2">
+        <f>A50</f>
+        <v>35</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="12">
+        <f t="shared" ref="C51:E51" si="10">C50+1</f>
+        <v>249</v>
+      </c>
+      <c r="D51" s="11">
+        <f t="shared" si="10"/>
+        <v>20802</v>
+      </c>
+      <c r="E51" s="1">
+        <f t="shared" si="10"/>
+        <v>44810</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="2">
+        <f>A51</f>
+        <v>35</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="12">
+        <f t="shared" ref="C52:E52" si="11">C51+1</f>
+        <v>250</v>
+      </c>
+      <c r="D52" s="11">
+        <f t="shared" si="11"/>
+        <v>20803</v>
+      </c>
+      <c r="E52" s="1">
+        <f t="shared" si="11"/>
+        <v>44811</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="2">
+        <f t="shared" ref="A53:A56" si="12">A52</f>
+        <v>35</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="12">
+        <f t="shared" ref="C53:E53" si="13">C52+1</f>
+        <v>251</v>
+      </c>
+      <c r="D53" s="11">
+        <f t="shared" si="13"/>
+        <v>20804</v>
+      </c>
+      <c r="E53" s="1">
+        <f t="shared" si="13"/>
+        <v>44812</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="2">
+        <f t="shared" si="12"/>
+        <v>35</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="12">
+        <f t="shared" ref="C54:E54" si="14">C53+1</f>
+        <v>252</v>
+      </c>
+      <c r="D54" s="11">
+        <f t="shared" si="14"/>
+        <v>20805</v>
+      </c>
+      <c r="E54" s="1">
+        <f t="shared" si="14"/>
+        <v>44813</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="2">
+        <f t="shared" si="12"/>
+        <v>35</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="12">
+        <f t="shared" ref="C55:E55" si="15">C54+1</f>
+        <v>253</v>
+      </c>
+      <c r="D55" s="11">
+        <f t="shared" si="15"/>
+        <v>20806</v>
+      </c>
+      <c r="E55" s="1">
+        <f t="shared" si="15"/>
+        <v>44814</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="2">
+        <f t="shared" si="12"/>
+        <v>35</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="12">
+        <f t="shared" ref="C56:E56" si="16">C55+1</f>
+        <v>254</v>
+      </c>
+      <c r="D56" s="11">
+        <f t="shared" si="16"/>
+        <v>20807</v>
+      </c>
+      <c r="E56" s="1">
+        <f t="shared" si="16"/>
+        <v>44815</v>
       </c>
     </row>
   </sheetData>

--- a/주간 업무.xlsx
+++ b/주간 업무.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>요일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -797,11 +797,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F49" sqref="F49"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1853,6 +1853,152 @@
       <c r="E56" s="1">
         <f t="shared" si="16"/>
         <v>44815</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="2">
+        <v>35</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="12">
+        <f>C56+1</f>
+        <v>255</v>
+      </c>
+      <c r="D58" s="11">
+        <f>D56+1</f>
+        <v>20808</v>
+      </c>
+      <c r="E58" s="1">
+        <f>E56+1</f>
+        <v>44816</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="2">
+        <f>A58</f>
+        <v>35</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" s="12">
+        <f t="shared" ref="C59:E59" si="17">C58+1</f>
+        <v>256</v>
+      </c>
+      <c r="D59" s="11">
+        <f t="shared" si="17"/>
+        <v>20809</v>
+      </c>
+      <c r="E59" s="1">
+        <f t="shared" si="17"/>
+        <v>44817</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="2">
+        <f>A59</f>
+        <v>35</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" s="12">
+        <f t="shared" ref="C60:E60" si="18">C59+1</f>
+        <v>257</v>
+      </c>
+      <c r="D60" s="11">
+        <f t="shared" si="18"/>
+        <v>20810</v>
+      </c>
+      <c r="E60" s="1">
+        <f t="shared" si="18"/>
+        <v>44818</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="2">
+        <f t="shared" ref="A61:A64" si="19">A60</f>
+        <v>35</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="12">
+        <f t="shared" ref="C61:E61" si="20">C60+1</f>
+        <v>258</v>
+      </c>
+      <c r="D61" s="11">
+        <f t="shared" si="20"/>
+        <v>20811</v>
+      </c>
+      <c r="E61" s="1">
+        <f t="shared" si="20"/>
+        <v>44819</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="2">
+        <f t="shared" si="19"/>
+        <v>35</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" s="12">
+        <f t="shared" ref="C62:E62" si="21">C61+1</f>
+        <v>259</v>
+      </c>
+      <c r="D62" s="11">
+        <f t="shared" si="21"/>
+        <v>20812</v>
+      </c>
+      <c r="E62" s="1">
+        <f t="shared" si="21"/>
+        <v>44820</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="2">
+        <f t="shared" si="19"/>
+        <v>35</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="12">
+        <f t="shared" ref="C63:E63" si="22">C62+1</f>
+        <v>260</v>
+      </c>
+      <c r="D63" s="11">
+        <f t="shared" si="22"/>
+        <v>20813</v>
+      </c>
+      <c r="E63" s="1">
+        <f t="shared" si="22"/>
+        <v>44821</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="2">
+        <f t="shared" si="19"/>
+        <v>35</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="12">
+        <f t="shared" ref="C64:E64" si="23">C63+1</f>
+        <v>261</v>
+      </c>
+      <c r="D64" s="11">
+        <f t="shared" si="23"/>
+        <v>20814</v>
+      </c>
+      <c r="E64" s="1">
+        <f t="shared" si="23"/>
+        <v>44822</v>
       </c>
     </row>
   </sheetData>

--- a/주간 업무.xlsx
+++ b/주간 업무.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
   <si>
     <t>요일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -797,11 +797,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A58" sqref="A58"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1999,6 +1999,152 @@
       <c r="E64" s="1">
         <f t="shared" si="23"/>
         <v>44822</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="2">
+        <v>35</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" s="12">
+        <f>C64+1</f>
+        <v>262</v>
+      </c>
+      <c r="D66" s="11">
+        <f>D64+1</f>
+        <v>20815</v>
+      </c>
+      <c r="E66" s="1">
+        <f>E64+1</f>
+        <v>44823</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="2">
+        <f>A66</f>
+        <v>35</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" s="12">
+        <f t="shared" ref="C67:E67" si="24">C66+1</f>
+        <v>263</v>
+      </c>
+      <c r="D67" s="11">
+        <f t="shared" si="24"/>
+        <v>20816</v>
+      </c>
+      <c r="E67" s="1">
+        <f t="shared" si="24"/>
+        <v>44824</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="2">
+        <f>A67</f>
+        <v>35</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" s="12">
+        <f t="shared" ref="C68:E68" si="25">C67+1</f>
+        <v>264</v>
+      </c>
+      <c r="D68" s="11">
+        <f t="shared" si="25"/>
+        <v>20817</v>
+      </c>
+      <c r="E68" s="1">
+        <f t="shared" si="25"/>
+        <v>44825</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="2">
+        <f t="shared" ref="A69:A72" si="26">A68</f>
+        <v>35</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="12">
+        <f t="shared" ref="C69:E69" si="27">C68+1</f>
+        <v>265</v>
+      </c>
+      <c r="D69" s="11">
+        <f t="shared" si="27"/>
+        <v>20818</v>
+      </c>
+      <c r="E69" s="1">
+        <f t="shared" si="27"/>
+        <v>44826</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="2">
+        <f t="shared" si="26"/>
+        <v>35</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" s="12">
+        <f t="shared" ref="C70:E70" si="28">C69+1</f>
+        <v>266</v>
+      </c>
+      <c r="D70" s="11">
+        <f t="shared" si="28"/>
+        <v>20819</v>
+      </c>
+      <c r="E70" s="1">
+        <f t="shared" si="28"/>
+        <v>44827</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="2">
+        <f t="shared" si="26"/>
+        <v>35</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" s="12">
+        <f t="shared" ref="C71:E71" si="29">C70+1</f>
+        <v>267</v>
+      </c>
+      <c r="D71" s="11">
+        <f t="shared" si="29"/>
+        <v>20820</v>
+      </c>
+      <c r="E71" s="1">
+        <f t="shared" si="29"/>
+        <v>44828</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="2">
+        <f t="shared" si="26"/>
+        <v>35</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" s="12">
+        <f t="shared" ref="C72:E72" si="30">C71+1</f>
+        <v>268</v>
+      </c>
+      <c r="D72" s="11">
+        <f t="shared" si="30"/>
+        <v>20821</v>
+      </c>
+      <c r="E72" s="1">
+        <f t="shared" si="30"/>
+        <v>44829</v>
       </c>
     </row>
   </sheetData>

--- a/주간 업무.xlsx
+++ b/주간 업무.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
   <si>
     <t>요일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -797,11 +797,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:F80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A66" sqref="A66"/>
+      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1711,7 +1711,7 @@
     </row>
     <row r="50" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>1</v>
@@ -1732,7 +1732,7 @@
     <row r="51" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="2">
         <f>A50</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>3</v>
@@ -1753,7 +1753,7 @@
     <row r="52" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="2">
         <f>A51</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>5</v>
@@ -1774,7 +1774,7 @@
     <row r="53" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="2">
         <f t="shared" ref="A53:A56" si="12">A52</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>6</v>
@@ -1795,7 +1795,7 @@
     <row r="54" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="2">
         <f t="shared" si="12"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>7</v>
@@ -1816,7 +1816,7 @@
     <row r="55" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="2">
         <f t="shared" si="12"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>8</v>
@@ -1837,7 +1837,7 @@
     <row r="56" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="2">
         <f t="shared" si="12"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>9</v>
@@ -1857,7 +1857,7 @@
     </row>
     <row r="58" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>1</v>
@@ -1878,7 +1878,7 @@
     <row r="59" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="2">
         <f>A58</f>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>3</v>
@@ -1899,7 +1899,7 @@
     <row r="60" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="2">
         <f>A59</f>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>5</v>
@@ -1920,7 +1920,7 @@
     <row r="61" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="2">
         <f t="shared" ref="A61:A64" si="19">A60</f>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>6</v>
@@ -1941,7 +1941,7 @@
     <row r="62" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="2">
         <f t="shared" si="19"/>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>7</v>
@@ -1962,7 +1962,7 @@
     <row r="63" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="2">
         <f t="shared" si="19"/>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>8</v>
@@ -1983,7 +1983,7 @@
     <row r="64" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="2">
         <f t="shared" si="19"/>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>9</v>
@@ -2003,7 +2003,7 @@
     </row>
     <row r="66" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="2">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>1</v>
@@ -2024,7 +2024,7 @@
     <row r="67" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="2">
         <f>A66</f>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>3</v>
@@ -2045,7 +2045,7 @@
     <row r="68" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="2">
         <f>A67</f>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>5</v>
@@ -2066,7 +2066,7 @@
     <row r="69" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="2">
         <f t="shared" ref="A69:A72" si="26">A68</f>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>6</v>
@@ -2087,7 +2087,7 @@
     <row r="70" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="2">
         <f t="shared" si="26"/>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>7</v>
@@ -2108,7 +2108,7 @@
     <row r="71" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="2">
         <f t="shared" si="26"/>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>8</v>
@@ -2129,7 +2129,7 @@
     <row r="72" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="2">
         <f t="shared" si="26"/>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>9</v>
@@ -2145,6 +2145,152 @@
       <c r="E72" s="1">
         <f t="shared" si="30"/>
         <v>44829</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="2">
+        <v>39</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" s="12">
+        <f>C72+1</f>
+        <v>269</v>
+      </c>
+      <c r="D74" s="11">
+        <f>D72+1</f>
+        <v>20822</v>
+      </c>
+      <c r="E74" s="1">
+        <f>E72+1</f>
+        <v>44830</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="2">
+        <f>A74</f>
+        <v>39</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" s="12">
+        <f t="shared" ref="C75:E75" si="31">C74+1</f>
+        <v>270</v>
+      </c>
+      <c r="D75" s="11">
+        <f t="shared" si="31"/>
+        <v>20823</v>
+      </c>
+      <c r="E75" s="1">
+        <f t="shared" si="31"/>
+        <v>44831</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="2">
+        <f>A75</f>
+        <v>39</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" s="12">
+        <f t="shared" ref="C76:E76" si="32">C75+1</f>
+        <v>271</v>
+      </c>
+      <c r="D76" s="11">
+        <f t="shared" si="32"/>
+        <v>20824</v>
+      </c>
+      <c r="E76" s="1">
+        <f t="shared" si="32"/>
+        <v>44832</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="2">
+        <f t="shared" ref="A77:A80" si="33">A76</f>
+        <v>39</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" s="12">
+        <f t="shared" ref="C77:E77" si="34">C76+1</f>
+        <v>272</v>
+      </c>
+      <c r="D77" s="11">
+        <f t="shared" si="34"/>
+        <v>20825</v>
+      </c>
+      <c r="E77" s="1">
+        <f t="shared" si="34"/>
+        <v>44833</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="2">
+        <f t="shared" si="33"/>
+        <v>39</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" s="12">
+        <f t="shared" ref="C78:E78" si="35">C77+1</f>
+        <v>273</v>
+      </c>
+      <c r="D78" s="11">
+        <f t="shared" si="35"/>
+        <v>20826</v>
+      </c>
+      <c r="E78" s="1">
+        <f t="shared" si="35"/>
+        <v>44834</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="2">
+        <f t="shared" si="33"/>
+        <v>39</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" s="12">
+        <f t="shared" ref="C79:E79" si="36">C78+1</f>
+        <v>274</v>
+      </c>
+      <c r="D79" s="11">
+        <f t="shared" si="36"/>
+        <v>20827</v>
+      </c>
+      <c r="E79" s="1">
+        <f t="shared" si="36"/>
+        <v>44835</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="2">
+        <f t="shared" si="33"/>
+        <v>39</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" s="12">
+        <f t="shared" ref="C80:E80" si="37">C79+1</f>
+        <v>275</v>
+      </c>
+      <c r="D80" s="11">
+        <f t="shared" si="37"/>
+        <v>20828</v>
+      </c>
+      <c r="E80" s="1">
+        <f t="shared" si="37"/>
+        <v>44836</v>
       </c>
     </row>
   </sheetData>

--- a/주간 업무.xlsx
+++ b/주간 업무.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
   <si>
     <t>요일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -797,11 +797,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F80"/>
+  <dimension ref="A1:F88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E74" sqref="E74"/>
+      <selection pane="bottomLeft" activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2291,6 +2291,152 @@
       <c r="E80" s="1">
         <f t="shared" si="37"/>
         <v>44836</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A82" s="2">
+        <v>39</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" s="12">
+        <f>C80+1</f>
+        <v>276</v>
+      </c>
+      <c r="D82" s="11">
+        <f>D80+1</f>
+        <v>20829</v>
+      </c>
+      <c r="E82" s="1">
+        <f>E80+1</f>
+        <v>44837</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A83" s="2">
+        <f>A82</f>
+        <v>39</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83" s="12">
+        <f t="shared" ref="C83:E83" si="38">C82+1</f>
+        <v>277</v>
+      </c>
+      <c r="D83" s="11">
+        <f t="shared" si="38"/>
+        <v>20830</v>
+      </c>
+      <c r="E83" s="1">
+        <f t="shared" si="38"/>
+        <v>44838</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A84" s="2">
+        <f>A83</f>
+        <v>39</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84" s="12">
+        <f t="shared" ref="C84:E84" si="39">C83+1</f>
+        <v>278</v>
+      </c>
+      <c r="D84" s="11">
+        <f t="shared" si="39"/>
+        <v>20831</v>
+      </c>
+      <c r="E84" s="1">
+        <f t="shared" si="39"/>
+        <v>44839</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A85" s="2">
+        <f t="shared" ref="A85:A88" si="40">A84</f>
+        <v>39</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" s="12">
+        <f t="shared" ref="C85:E85" si="41">C84+1</f>
+        <v>279</v>
+      </c>
+      <c r="D85" s="11">
+        <f t="shared" si="41"/>
+        <v>20832</v>
+      </c>
+      <c r="E85" s="1">
+        <f t="shared" si="41"/>
+        <v>44840</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A86" s="2">
+        <f t="shared" si="40"/>
+        <v>39</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" s="12">
+        <f t="shared" ref="C86:E86" si="42">C85+1</f>
+        <v>280</v>
+      </c>
+      <c r="D86" s="11">
+        <f t="shared" si="42"/>
+        <v>20833</v>
+      </c>
+      <c r="E86" s="1">
+        <f t="shared" si="42"/>
+        <v>44841</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A87" s="2">
+        <f t="shared" si="40"/>
+        <v>39</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" s="12">
+        <f t="shared" ref="C87:E87" si="43">C86+1</f>
+        <v>281</v>
+      </c>
+      <c r="D87" s="11">
+        <f t="shared" si="43"/>
+        <v>20834</v>
+      </c>
+      <c r="E87" s="1">
+        <f t="shared" si="43"/>
+        <v>44842</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A88" s="2">
+        <f t="shared" si="40"/>
+        <v>39</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" s="12">
+        <f t="shared" ref="C88:E88" si="44">C87+1</f>
+        <v>282</v>
+      </c>
+      <c r="D88" s="11">
+        <f t="shared" si="44"/>
+        <v>20835</v>
+      </c>
+      <c r="E88" s="1">
+        <f t="shared" si="44"/>
+        <v>44843</v>
       </c>
     </row>
   </sheetData>

--- a/주간 업무.xlsx
+++ b/주간 업무.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
   <si>
     <t>요일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -797,11 +797,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F88"/>
+  <dimension ref="A1:F96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E81" sqref="E81"/>
+      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2295,7 +2295,7 @@
     </row>
     <row r="82" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>1</v>
@@ -2316,7 +2316,7 @@
     <row r="83" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="2">
         <f>A82</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>3</v>
@@ -2337,7 +2337,7 @@
     <row r="84" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="2">
         <f>A83</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>5</v>
@@ -2358,7 +2358,7 @@
     <row r="85" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="2">
         <f t="shared" ref="A85:A88" si="40">A84</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>6</v>
@@ -2379,7 +2379,7 @@
     <row r="86" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="2">
         <f t="shared" si="40"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>7</v>
@@ -2400,7 +2400,7 @@
     <row r="87" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="2">
         <f t="shared" si="40"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>8</v>
@@ -2421,7 +2421,7 @@
     <row r="88" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="2">
         <f t="shared" si="40"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>9</v>
@@ -2437,6 +2437,152 @@
       <c r="E88" s="1">
         <f t="shared" si="44"/>
         <v>44843</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A90" s="2">
+        <v>41</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C90" s="12">
+        <f>C88+1</f>
+        <v>283</v>
+      </c>
+      <c r="D90" s="11">
+        <f>D88+1</f>
+        <v>20836</v>
+      </c>
+      <c r="E90" s="1">
+        <f>E88+1</f>
+        <v>44844</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A91" s="2">
+        <f>A90</f>
+        <v>41</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C91" s="12">
+        <f t="shared" ref="C91:E91" si="45">C90+1</f>
+        <v>284</v>
+      </c>
+      <c r="D91" s="11">
+        <f t="shared" si="45"/>
+        <v>20837</v>
+      </c>
+      <c r="E91" s="1">
+        <f t="shared" si="45"/>
+        <v>44845</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A92" s="2">
+        <f>A91</f>
+        <v>41</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92" s="12">
+        <f t="shared" ref="C92:E92" si="46">C91+1</f>
+        <v>285</v>
+      </c>
+      <c r="D92" s="11">
+        <f t="shared" si="46"/>
+        <v>20838</v>
+      </c>
+      <c r="E92" s="1">
+        <f t="shared" si="46"/>
+        <v>44846</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A93" s="2">
+        <f t="shared" ref="A93:A96" si="47">A92</f>
+        <v>41</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93" s="12">
+        <f t="shared" ref="C93:E93" si="48">C92+1</f>
+        <v>286</v>
+      </c>
+      <c r="D93" s="11">
+        <f t="shared" si="48"/>
+        <v>20839</v>
+      </c>
+      <c r="E93" s="1">
+        <f t="shared" si="48"/>
+        <v>44847</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A94" s="2">
+        <f t="shared" si="47"/>
+        <v>41</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" s="12">
+        <f t="shared" ref="C94:E94" si="49">C93+1</f>
+        <v>287</v>
+      </c>
+      <c r="D94" s="11">
+        <f t="shared" si="49"/>
+        <v>20840</v>
+      </c>
+      <c r="E94" s="1">
+        <f t="shared" si="49"/>
+        <v>44848</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A95" s="2">
+        <f t="shared" si="47"/>
+        <v>41</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" s="12">
+        <f t="shared" ref="C95:E95" si="50">C94+1</f>
+        <v>288</v>
+      </c>
+      <c r="D95" s="11">
+        <f t="shared" si="50"/>
+        <v>20841</v>
+      </c>
+      <c r="E95" s="1">
+        <f t="shared" si="50"/>
+        <v>44849</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A96" s="2">
+        <f t="shared" si="47"/>
+        <v>41</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96" s="12">
+        <f t="shared" ref="C96:E96" si="51">C95+1</f>
+        <v>289</v>
+      </c>
+      <c r="D96" s="11">
+        <f t="shared" si="51"/>
+        <v>20842</v>
+      </c>
+      <c r="E96" s="1">
+        <f t="shared" si="51"/>
+        <v>44850</v>
       </c>
     </row>
   </sheetData>

--- a/주간 업무.xlsx
+++ b/주간 업무.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
   <si>
     <t>요일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -797,11 +797,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F96"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B90" sqref="B90"/>
+      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2583,6 +2583,153 @@
       <c r="E96" s="1">
         <f t="shared" si="51"/>
         <v>44850</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A98" s="2">
+        <f>A96+1</f>
+        <v>42</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C98" s="12">
+        <f>C96+1</f>
+        <v>290</v>
+      </c>
+      <c r="D98" s="11">
+        <f>D96+1</f>
+        <v>20843</v>
+      </c>
+      <c r="E98" s="1">
+        <f>E96+1</f>
+        <v>44851</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A99" s="2">
+        <f>A98</f>
+        <v>42</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99" s="12">
+        <f t="shared" ref="C99:E99" si="52">C98+1</f>
+        <v>291</v>
+      </c>
+      <c r="D99" s="11">
+        <f t="shared" si="52"/>
+        <v>20844</v>
+      </c>
+      <c r="E99" s="1">
+        <f t="shared" si="52"/>
+        <v>44852</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A100" s="2">
+        <f>A99</f>
+        <v>42</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" s="12">
+        <f t="shared" ref="C100:E100" si="53">C99+1</f>
+        <v>292</v>
+      </c>
+      <c r="D100" s="11">
+        <f t="shared" si="53"/>
+        <v>20845</v>
+      </c>
+      <c r="E100" s="1">
+        <f t="shared" si="53"/>
+        <v>44853</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A101" s="2">
+        <f t="shared" ref="A101:A104" si="54">A100</f>
+        <v>42</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101" s="12">
+        <f t="shared" ref="C101:E101" si="55">C100+1</f>
+        <v>293</v>
+      </c>
+      <c r="D101" s="11">
+        <f t="shared" si="55"/>
+        <v>20846</v>
+      </c>
+      <c r="E101" s="1">
+        <f t="shared" si="55"/>
+        <v>44854</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A102" s="2">
+        <f t="shared" si="54"/>
+        <v>42</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" s="12">
+        <f t="shared" ref="C102:E102" si="56">C101+1</f>
+        <v>294</v>
+      </c>
+      <c r="D102" s="11">
+        <f t="shared" si="56"/>
+        <v>20847</v>
+      </c>
+      <c r="E102" s="1">
+        <f t="shared" si="56"/>
+        <v>44855</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A103" s="2">
+        <f t="shared" si="54"/>
+        <v>42</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" s="12">
+        <f t="shared" ref="C103:E103" si="57">C102+1</f>
+        <v>295</v>
+      </c>
+      <c r="D103" s="11">
+        <f t="shared" si="57"/>
+        <v>20848</v>
+      </c>
+      <c r="E103" s="1">
+        <f t="shared" si="57"/>
+        <v>44856</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A104" s="2">
+        <f t="shared" si="54"/>
+        <v>42</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104" s="12">
+        <f t="shared" ref="C104:E104" si="58">C103+1</f>
+        <v>296</v>
+      </c>
+      <c r="D104" s="11">
+        <f t="shared" si="58"/>
+        <v>20849</v>
+      </c>
+      <c r="E104" s="1">
+        <f t="shared" si="58"/>
+        <v>44857</v>
       </c>
     </row>
   </sheetData>
